--- a/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ3"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,94 +591,112 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.167</v>
+        <v>0.3</v>
       </c>
       <c r="E2">
-        <v>0.223</v>
+        <v>0.419</v>
+      </c>
+      <c r="F2">
+        <v>0.28</v>
       </c>
       <c r="G2">
-        <v>0.4356965174129354</v>
+        <v>0.006390984811366977</v>
       </c>
       <c r="H2">
-        <v>0.4253731343283583</v>
+        <v>0.006330230279274865</v>
       </c>
       <c r="I2">
-        <v>0.3992537313432836</v>
+        <v>0.006114649681528662</v>
       </c>
       <c r="J2">
-        <v>0.3372820242223227</v>
+        <v>0.005314910291875514</v>
       </c>
       <c r="K2">
-        <v>2.51</v>
+        <v>570.63</v>
       </c>
       <c r="L2">
-        <v>0.3121890547263682</v>
+        <v>0.5591670749632534</v>
       </c>
       <c r="M2">
-        <v>0.162</v>
+        <v>491.9</v>
       </c>
       <c r="N2">
-        <v>0.01306451612903226</v>
+        <v>0.03817291500143565</v>
       </c>
       <c r="O2">
-        <v>0.06454183266932272</v>
+        <v>0.8620296864868654</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>491.9</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.03817291500143565</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.8620296864868654</v>
       </c>
       <c r="S2">
-        <v>0.162</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>597.3</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.04635227105175344</v>
       </c>
       <c r="X2">
-        <v>0.03022436156583486</v>
+        <v>0.02072269771519328</v>
+      </c>
+      <c r="Z2">
+        <v>1.502502944640754</v>
       </c>
       <c r="AB2">
-        <v>0.03022436156583486</v>
+        <v>0.02126038812292253</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>489.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>489.7</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>-107.6</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.03661089430164925</v>
+      </c>
+      <c r="AI2">
+        <v>0.4115471888393982</v>
       </c>
       <c r="AJ2">
-        <v>0</v>
+        <v>-0.008420393629925263</v>
+      </c>
+      <c r="AK2">
+        <v>-0.1815727303408707</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>-0.174</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>75.80495356037152</v>
+      </c>
+      <c r="AO2">
+        <v>76.09756097560975</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>-16.656346749226</v>
+      </c>
+      <c r="AQ2">
+        <v>-35.86206896551725</v>
       </c>
     </row>
     <row r="3">
@@ -698,37 +716,37 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.167</v>
+        <v>0.197</v>
       </c>
       <c r="E3">
-        <v>0.223</v>
+        <v>0.303</v>
       </c>
       <c r="G3">
-        <v>0.4356965174129354</v>
+        <v>0.598348623853211</v>
       </c>
       <c r="H3">
-        <v>0.4253731343283583</v>
+        <v>0.5926605504587156</v>
       </c>
       <c r="I3">
-        <v>0.3992537313432836</v>
+        <v>0.5724770642201835</v>
       </c>
       <c r="J3">
-        <v>0.3372820242223227</v>
+        <v>0.5199470768693933</v>
       </c>
       <c r="K3">
-        <v>2.51</v>
+        <v>5.73</v>
       </c>
       <c r="L3">
-        <v>0.3121890547263682</v>
+        <v>0.5256880733944954</v>
       </c>
       <c r="M3">
-        <v>0.162</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.01306451612903226</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>0.06454183266932272</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -740,10 +758,7 @@
         <v>-0</v>
       </c>
       <c r="S3">
-        <v>0.162</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
@@ -752,10 +767,10 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AB3">
-        <v>0.03022436156583486</v>
+        <v>0.02055145315271485</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -776,15 +791,146 @@
         <v>0</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.082</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>-0.174</v>
       </c>
       <c r="AN3">
         <v>0</v>
       </c>
+      <c r="AO3">
+        <v>76.09756097560975</v>
+      </c>
       <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>-35.86206896551725</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kaspi.kz Joint Stock Company (LSE:KSPI)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D4">
+        <v>0.403</v>
+      </c>
+      <c r="E4">
+        <v>0.535</v>
+      </c>
+      <c r="F4">
+        <v>0.28</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>564.9</v>
+      </c>
+      <c r="L4">
+        <v>0.5595285261489699</v>
+      </c>
+      <c r="M4">
+        <v>491.9</v>
+      </c>
+      <c r="N4">
+        <v>0.03822037124808664</v>
+      </c>
+      <c r="O4">
+        <v>0.8707735882457072</v>
+      </c>
+      <c r="P4">
+        <v>491.9</v>
+      </c>
+      <c r="Q4">
+        <v>0.03822037124808664</v>
+      </c>
+      <c r="R4">
+        <v>0.8707735882457072</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>597.3</v>
+      </c>
+      <c r="V4">
+        <v>0.0464098958050054</v>
+      </c>
+      <c r="W4">
+        <v>0.8295154185022026</v>
+      </c>
+      <c r="X4">
+        <v>0.02089394227767173</v>
+      </c>
+      <c r="Y4">
+        <v>0.8086214762245308</v>
+      </c>
+      <c r="Z4">
+        <v>1.486454652532391</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.02196932309313021</v>
+      </c>
+      <c r="AC4">
+        <v>-0.02196932309313021</v>
+      </c>
+      <c r="AD4">
+        <v>489.7</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>489.7</v>
+      </c>
+      <c r="AG4">
+        <v>-107.6</v>
+      </c>
+      <c r="AH4">
+        <v>0.03665474034042426</v>
+      </c>
+      <c r="AI4">
+        <v>0.4115471888393982</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.008430950048971594</v>
+      </c>
+      <c r="AK4">
+        <v>-0.1815727303408707</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
         <v>0</v>
       </c>
     </row>
